--- a/pred_ohlcv/54_21/2020-01-14 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BTG ohlcv.xlsx
@@ -3876,7 +3876,7 @@
         <v>-2135.723099999999</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2029.784699999999</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2104.059999999999</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1606.318499999999</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1751.461306669999</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1169.745806669999</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1144.27260667</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1144.27260667</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-842.5044066699995</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>3531.467093330001</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>3502.477093330001</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>3720.088293330001</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>4046.588293330001</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>4046.588293330001</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>4000.088293330001</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4012.238893330001</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>3322.997893330001</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>3324.347893330001</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>3324.347893330001</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>3292.847893330001</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>3292.847893330001</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3519.235193330001</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3786.885193330001</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3159.895793330001</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3159.895793330001</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>2493.395793330001</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>2498.076193330001</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BTG ohlcv.xlsx
@@ -3408,7 +3408,7 @@
         <v>-1342.423899999999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1114.423899999999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1122.563899999999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2135.723099999999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2029.784699999999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2052.495699999999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2104.059999999999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2101.850599999999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1606.318499999999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1516.318499999999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1609.318499999999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1478.518499999999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-804.401699999999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2736.323499999999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2196.469506669999</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2173.469506669999</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2099.085606669999</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1675.023006669999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1783.487106669999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1802.487106669999</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1802.487106669999</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1802.487106669999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1751.461306669999</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1169.745806669999</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1144.27260667</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1144.27260667</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-842.5044066699995</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3398.410693330001</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>3366.410693330001</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3366.597493330001</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3431.173693330001</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3536.297093330001</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>3531.467093330001</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>3531.467093330001</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>3531.467093330001</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>3531.467093330001</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>3552.467093330001</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>3502.477093330001</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>3502.477093330001</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>3720.088293330001</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>4046.588293330001</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>4046.588293330001</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>4000.088293330001</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4012.238893330001</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>3322.997893330001</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>3324.347893330001</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>3324.347893330001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>3292.847893330001</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>3292.847893330001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>3488.735193330001</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3519.235193330001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3786.885193330001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3159.895793330001</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3159.895793330001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>2493.395793330001</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>2498.076193330001</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1830.339393330001</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1839.434793330001</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>3533.541293330002</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
